--- a/qn-var.xlsx
+++ b/qn-var.xlsx
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
